--- a/testcases/CRM系统接口测试用例.xlsx
+++ b/testcases/CRM系统接口测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="全局变量" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="77">
   <si>
     <t>变量名称</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>2fde6f8d8fcc4e949470fd72a8a6a25a</t>
   </si>
   <si>
     <t>接口名称</t>
@@ -412,10 +418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -434,11 +440,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,8 +468,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,16 +500,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,15 +514,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,7 +531,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,29 +575,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -579,187 +585,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,9 +781,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,8 +832,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,21 +868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -844,32 +876,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -878,10 +884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,19 +896,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,116 +917,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,9 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -1384,16 +1387,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="25.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="49.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1408,7 +1411,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1428,9 +1431,17 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://82.156.74.26:9099"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://82.156.74.26:9099" tooltip="http://82.156.74.26:9099"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1443,8 +1454,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1455,58 +1466,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="138" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="166" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="216" spans="1:2">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1532,42 +1543,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1593,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1590,7 +1601,7 @@
     <col min="1" max="1" width="5.22222222222222" customWidth="1"/>
     <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="10.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="21.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="25.8888888888889" customWidth="1"/>
@@ -1601,34 +1612,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:10">
@@ -1636,58 +1647,58 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>200</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="105" customHeight="1" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3">
         <v>200</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="1" spans="1:10">
@@ -1695,29 +1706,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4">
         <v>200</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:10">
@@ -1725,29 +1736,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5">
         <v>200</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1782,34 +1793,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:10">
@@ -1817,26 +1828,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>200</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="31" customHeight="1" spans="1:10">
@@ -1844,31 +1855,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3">
         <v>200</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="43" customHeight="1" spans="1:10">
@@ -1876,28 +1887,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I4">
         <v>200</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="37" customHeight="1" spans="1:10">
@@ -1905,28 +1916,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5">
         <v>200</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1961,34 +1972,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:10">
@@ -1996,26 +2007,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>200</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="46" customHeight="1" spans="1:10">
@@ -2023,28 +2034,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3">
         <v>200</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:10">
@@ -2052,28 +2063,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <v>200</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2106,34 +2117,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="100.8" spans="1:10">
@@ -2141,26 +2152,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>200</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="113" customHeight="1" spans="1:10">
@@ -2168,31 +2179,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3">
         <v>200</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="1:10">
@@ -2200,28 +2211,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <v>200</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="100.8" spans="1:10">
@@ -2229,28 +2240,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5">
         <v>200</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" ht="100.8" spans="1:10">
@@ -2258,28 +2269,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6">
         <v>200</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="216" spans="1:10">
@@ -2287,31 +2298,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I7">
         <v>200</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="129.6" spans="1:10">
@@ -2319,28 +2330,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8">
         <v>200</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="216" spans="1:10">
@@ -2348,28 +2359,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I9">
         <v>200</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="216" spans="1:10">
@@ -2377,31 +2388,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>200</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="100.8" spans="1:10">
@@ -2409,25 +2420,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>200</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="216" spans="1:10">
@@ -2435,28 +2446,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <v>200</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
